--- a/Data/Working tables/FA Grants Data Tables - Worked.xlsx
+++ b/Data/Working tables/FA Grants Data Tables - Worked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spulick/GitHub/fa_grants/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\fa_grants\Data\Working tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4445B75-B83F-F740-9F01-8946E3F92007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0681EB12-0EB8-4440-958D-60069F6B5A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DF8FEA54-7424-4ED5-A065-07E06B676E46}"/>
+    <workbookView xWindow="-330" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF8FEA54-7424-4ED5-A065-07E06B676E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="20" r:id="rId1"/>
@@ -209,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="674">
   <si>
     <t>Alpine S</t>
   </si>
@@ -2236,6 +2236,15 @@
   </si>
   <si>
     <t>Scaled Gap</t>
+  </si>
+  <si>
+    <t>Raw Scaled Gap</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Significant Scaled Gap</t>
   </si>
 </sst>
 </file>
@@ -2243,11 +2252,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,30 +2320,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2988,35 +2996,35 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.83984375" customWidth="1"/>
+    <col min="4" max="4" width="5.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.47265625" customWidth="1"/>
+    <col min="7" max="7" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.68359375" customWidth="1"/>
+    <col min="9" max="10" width="15.3125" customWidth="1"/>
+    <col min="11" max="11" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.3125" customWidth="1"/>
+    <col min="13" max="13" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.15625" customWidth="1"/>
+    <col min="15" max="15" width="16.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" s="3">
         <v>0.3</v>
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>475</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="7" t="s">
         <v>481</v>
       </c>
@@ -3067,7 +3075,7 @@
       </c>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="5" t="s">
         <v>482</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="str" cm="1">
         <f t="array" ref="E10">_xlfn._xlws.FILTER(Victoria!A2:A80,Victoria!N2:N80&lt;0,"")</f>
         <v/>
@@ -3145,7 +3153,7 @@
         <v>59559.79616441566</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="O11" t="str">
         <v>Glenorchy</v>
       </c>
@@ -3153,7 +3161,7 @@
         <v>48666.274550001384</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="O12" t="str">
         <v>Hobart</v>
       </c>
@@ -3161,7 +3169,7 @@
         <v>53171.874008522434</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="O13" t="str">
         <v>Launceston</v>
       </c>
@@ -3187,23 +3195,25 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="J4:M18"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="O134" sqref="O134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83984375" customWidth="1"/>
+    <col min="6" max="6" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9453125" customWidth="1"/>
+    <col min="11" max="11" width="9.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>515</v>
       </c>
@@ -3223,10 +3233,19 @@
         <v>669</v>
       </c>
       <c r="G1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>519</v>
       </c>
@@ -3243,7 +3262,7 @@
         <f>0.3*C2*SUM(D$2:D$132)/SUM(C$2:C$132)</f>
         <v>5901857.8360765185</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2">
         <f>D2-E2</f>
         <v>0.16392348147928715</v>
       </c>
@@ -3251,8 +3270,20 @@
         <f>F2/(SUM(D$2:D$132)-SUM(E$2:E$132))</f>
         <v>3.2975170900837592E-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="H2" t="b">
+        <f xml:space="preserve"> G2 &gt; 10^-7</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>G2*H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> I2/SUM(I$2:I$132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>521</v>
       </c>
@@ -3269,7 +3300,7 @@
         <f t="shared" ref="E3:E66" si="0">0.3*C3*SUM(D$2:D$132)/SUM(C$2:C$132)</f>
         <v>358474.66565334989</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <f t="shared" ref="F3:F66" si="1">D3-E3</f>
         <v>82736.33434665011</v>
       </c>
@@ -3277,8 +3308,20 @@
         <f t="shared" ref="G3:G66" si="2">F3/(SUM(D$2:D$132)-SUM(E$2:E$132))</f>
         <v>1.6643404228419581E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" t="b">
+        <f t="shared" ref="H3:H66" si="3" xml:space="preserve"> G3 &gt; 10^-7</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="4">G3*H3</f>
+        <v>1.6643404228419581E-4</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="5" xml:space="preserve"> I3/SUM(I$2:I$132)</f>
+        <v>1.6643406318341003E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>523</v>
       </c>
@@ -3295,7 +3338,7 @@
         <f t="shared" si="0"/>
         <v>742463.45149676083</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <f t="shared" si="1"/>
         <v>166215.54850323917</v>
       </c>
@@ -3303,8 +3346,20 @@
         <f t="shared" si="2"/>
         <v>3.3436247624861069E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="H4" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>3.3436247624861069E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>3.3436251823469067E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -3321,7 +3376,7 @@
         <f t="shared" si="0"/>
         <v>1085384.4643015149</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <f t="shared" si="1"/>
         <v>51125.535698485095</v>
       </c>
@@ -3329,8 +3384,20 @@
         <f t="shared" si="2"/>
         <v>1.0284513614771175E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="H5" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1.0284513614771175E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>1.0284514906203205E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>526</v>
       </c>
@@ -3347,7 +3414,7 @@
         <f t="shared" si="0"/>
         <v>1061147.3271039494</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <f t="shared" si="1"/>
         <v>62264.672896050615</v>
       </c>
@@ -3355,8 +3422,20 @@
         <f t="shared" si="2"/>
         <v>1.2525284427243293E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="H6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1.2525284427243293E-4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.2525286000050146E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>527</v>
       </c>
@@ -3373,7 +3452,7 @@
         <f t="shared" si="0"/>
         <v>1839213.0644314862</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7">
         <f t="shared" si="1"/>
         <v>-6.4431486185640097E-2</v>
       </c>
@@ -3381,8 +3460,20 @@
         <f t="shared" si="2"/>
         <v>-1.2961164862978471E-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="H7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>528</v>
       </c>
@@ -3399,7 +3490,7 @@
         <f t="shared" si="0"/>
         <v>1221408.6926621406</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8">
         <f t="shared" si="1"/>
         <v>86510.307337859413</v>
       </c>
@@ -3407,8 +3498,20 @@
         <f t="shared" si="2"/>
         <v>1.7402584080123724E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>1.7402584080123724E-4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>1.7402586265375777E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>529</v>
       </c>
@@ -3425,7 +3528,7 @@
         <f t="shared" si="0"/>
         <v>1823889.2685215396</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9">
         <f t="shared" si="1"/>
         <v>-0.26852153963409364</v>
       </c>
@@ -3433,8 +3536,20 @@
         <f t="shared" si="2"/>
         <v>-5.4016322616409936E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>530</v>
       </c>
@@ -3451,7 +3566,7 @@
         <f t="shared" si="0"/>
         <v>1395997.8073961318</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10">
         <f t="shared" si="1"/>
         <v>2429.1926038681995</v>
       </c>
@@ -3459,9 +3574,21 @@
         <f t="shared" si="2"/>
         <v>4.8866117618253562E-6</v>
       </c>
+      <c r="H10" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>4.8866117618253562E-6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>4.8866123754398825E-6</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>531</v>
       </c>
@@ -3478,7 +3605,7 @@
         <f t="shared" si="0"/>
         <v>2333941.8153841109</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11">
         <f t="shared" si="1"/>
         <v>0.18461588909849524</v>
       </c>
@@ -3486,8 +3613,20 @@
         <f t="shared" si="2"/>
         <v>3.7137696436749902E-10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>533</v>
       </c>
@@ -3504,7 +3643,7 @@
         <f t="shared" si="0"/>
         <v>1988875.4711519643</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12">
         <f t="shared" si="1"/>
         <v>-0.47115196427330375</v>
       </c>
@@ -3512,8 +3651,20 @@
         <f t="shared" si="2"/>
         <v>-9.4777858559212216E-10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="H12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>534</v>
       </c>
@@ -3530,7 +3681,7 @@
         <f t="shared" si="0"/>
         <v>4673425.736955652</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13">
         <f t="shared" si="1"/>
         <v>0.26304434798657894</v>
       </c>
@@ -3538,8 +3689,20 @@
         <f t="shared" si="2"/>
         <v>5.2914519939919938E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="H13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>536</v>
       </c>
@@ -3556,7 +3719,7 @@
         <f t="shared" si="0"/>
         <v>10885054.107351741</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14">
         <f t="shared" si="1"/>
         <v>3807517.8926482592</v>
       </c>
@@ -3564,8 +3727,20 @@
         <f t="shared" si="2"/>
         <v>7.659278102505278E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="H14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>7.659278102505278E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>7.6592790642850406E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>537</v>
       </c>
@@ -3582,7 +3757,7 @@
         <f t="shared" si="0"/>
         <v>9700703.4611318205</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15">
         <f t="shared" si="1"/>
         <v>-0.46113182045519352</v>
       </c>
@@ -3590,8 +3765,20 @@
         <f t="shared" si="2"/>
         <v>-9.2762186662352784E-10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="H15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>538</v>
       </c>
@@ -3608,7 +3795,7 @@
         <f t="shared" si="0"/>
         <v>6265465.9733597003</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16">
         <f t="shared" si="1"/>
         <v>743046.02664029971</v>
       </c>
@@ -3616,8 +3803,20 @@
         <f t="shared" si="2"/>
         <v>1.4947260450143753E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>1.4947260450143753E-3</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>1.4947262327079467E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>539</v>
       </c>
@@ -3634,7 +3833,7 @@
         <f t="shared" si="0"/>
         <v>5356739.3362400196</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17">
         <f t="shared" si="1"/>
         <v>2767049.6637599804</v>
       </c>
@@ -3642,8 +3841,20 @@
         <f t="shared" si="2"/>
         <v>5.5662516882988384E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>5.5662516882988384E-3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>5.5662523872561237E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>540</v>
       </c>
@@ -3660,7 +3871,7 @@
         <f t="shared" si="0"/>
         <v>4036568.7789382734</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18">
         <f t="shared" si="1"/>
         <v>0.2210617265664041</v>
       </c>
@@ -3668,8 +3879,20 @@
         <f t="shared" si="2"/>
         <v>4.4469212997300141E-10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>541</v>
       </c>
@@ -3686,7 +3909,7 @@
         <f t="shared" si="0"/>
         <v>4809756.4412344769</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>-0.44123447686433792</v>
       </c>
@@ -3694,8 +3917,20 @@
         <f t="shared" si="2"/>
         <v>-8.8759597774780536E-10</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>542</v>
       </c>
@@ -3712,7 +3947,7 @@
         <f t="shared" si="0"/>
         <v>3243102.6267212406</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20">
         <f t="shared" si="1"/>
         <v>0.37327875941991806</v>
       </c>
@@ -3720,8 +3955,20 @@
         <f t="shared" si="2"/>
         <v>7.5089491599650754E-10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>543</v>
       </c>
@@ -3738,7 +3985,7 @@
         <f t="shared" si="0"/>
         <v>6325458.6343471408</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21">
         <f t="shared" si="1"/>
         <v>809529.36565285921</v>
       </c>
@@ -3746,8 +3993,20 @@
         <f t="shared" si="2"/>
         <v>1.6284652412670174E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>1.6284652412670174E-3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>1.6284654457542932E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>544</v>
       </c>
@@ -3764,7 +4023,7 @@
         <f t="shared" si="0"/>
         <v>6842611.2066479884</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22">
         <f t="shared" si="1"/>
         <v>10.793352011591196</v>
       </c>
@@ -3772,8 +4031,20 @@
         <f t="shared" si="2"/>
         <v>2.1712119823424499E-8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>545</v>
       </c>
@@ -3790,7 +4061,7 @@
         <f t="shared" si="0"/>
         <v>6873871.7503042789</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23">
         <f t="shared" si="1"/>
         <v>1147694.2496957211</v>
       </c>
@@ -3798,8 +4069,20 @@
         <f t="shared" si="2"/>
         <v>2.3087243928751602E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>2.3087243928751602E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>2.3087246827829516E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>546</v>
       </c>
@@ -3816,7 +4099,7 @@
         <f t="shared" si="0"/>
         <v>3622545.3531113672</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24">
         <f t="shared" si="1"/>
         <v>48039.646888632793</v>
       </c>
@@ -3824,8 +4107,20 @@
         <f t="shared" si="2"/>
         <v>9.6637501343498566E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>9.6637501343498566E-5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>9.6637513478322744E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>547</v>
       </c>
@@ -3842,7 +4137,7 @@
         <f t="shared" si="0"/>
         <v>3466140.4761905125</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25">
         <f t="shared" si="1"/>
         <v>-0.47619051253423095</v>
       </c>
@@ -3850,8 +4145,20 @@
         <f t="shared" si="2"/>
         <v>-9.5791422866758872E-10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>548</v>
       </c>
@@ -3868,7 +4175,7 @@
         <f t="shared" si="0"/>
         <v>6002560.7148647178</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26">
         <f t="shared" si="1"/>
         <v>0.28513528220355511</v>
       </c>
@@ -3876,8 +4183,20 @@
         <f t="shared" si="2"/>
         <v>5.7358375845066724E-10</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>549</v>
       </c>
@@ -3894,7 +4213,7 @@
         <f t="shared" si="0"/>
         <v>1740681.0567305298</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27">
         <f t="shared" si="1"/>
         <v>1225833.9432694702</v>
       </c>
@@ -3902,8 +4221,20 @@
         <f t="shared" si="2"/>
         <v>2.4659117419041665E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>2.4659117419041665E-3</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>2.4659120515500596E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>551</v>
       </c>
@@ -3920,7 +4251,7 @@
         <f t="shared" si="0"/>
         <v>1471493.0419124686</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>1432962.9580875314</v>
       </c>
@@ -3928,8 +4259,20 @@
         <f t="shared" si="2"/>
         <v>2.8825765540781761E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>2.8825765540781761E-3</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>2.8825769160448992E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>552</v>
       </c>
@@ -3946,7 +4289,7 @@
         <f t="shared" si="0"/>
         <v>2003484.1565861134</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>7008482.8434138866</v>
       </c>
@@ -3954,8 +4297,20 @@
         <f t="shared" si="2"/>
         <v>1.4098402341848927E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>1.4098402341848927E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>1.4098404112193061E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>554</v>
       </c>
@@ -3972,7 +4327,7 @@
         <f t="shared" si="0"/>
         <v>3443027.0840263432</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>0.9159736568108201</v>
       </c>
@@ -3980,8 +4335,20 @@
         <f t="shared" si="2"/>
         <v>1.8425906771519178E-9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>556</v>
       </c>
@@ -3998,7 +4365,7 @@
         <f t="shared" si="0"/>
         <v>4719320.5057059424</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>4288394.4942940576</v>
       </c>
@@ -4006,8 +4373,20 @@
         <f t="shared" si="2"/>
         <v>8.6266189604706361E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
+        <v>8.6266189604706361E-3</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>8.6266200437199216E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -4024,7 +4403,7 @@
         <f t="shared" si="0"/>
         <v>8988274.6496185549</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>16830651.350381445</v>
       </c>
@@ -4032,8 +4411,20 @@
         <f t="shared" si="2"/>
         <v>3.3856870269154724E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
+        <v>3.3856870269154724E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>3.3856874520580539E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>557</v>
       </c>
@@ -4050,7 +4441,7 @@
         <f t="shared" si="0"/>
         <v>5311202.1227276288</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>13.877272371202707</v>
       </c>
@@ -4058,8 +4449,20 @@
         <f t="shared" si="2"/>
         <v>2.7915794854302347E-8</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>558</v>
       </c>
@@ -4076,7 +4479,7 @@
         <f t="shared" si="0"/>
         <v>3934946.4723954778</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>37.527604522183537</v>
       </c>
@@ -4084,8 +4487,20 @@
         <f t="shared" si="2"/>
         <v>7.5491269551544505E-8</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>559</v>
       </c>
@@ -4102,7 +4517,7 @@
         <f t="shared" si="0"/>
         <v>5733219.4620875567</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>3584734.5379124433</v>
       </c>
@@ -4110,8 +4525,20 @@
         <f t="shared" si="2"/>
         <v>7.2111227113446945E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>7.2111227113446945E-3</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>7.2111236168493379E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>560</v>
       </c>
@@ -4128,7 +4555,7 @@
         <f t="shared" si="0"/>
         <v>755820.69359826425</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>4936188.3064017361</v>
       </c>
@@ -4136,8 +4563,20 @@
         <f t="shared" si="2"/>
         <v>9.9297337717220609E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>9.9297337717220609E-3</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>9.9297350186041897E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>562</v>
       </c>
@@ -4154,7 +4593,7 @@
         <f t="shared" si="0"/>
         <v>450110.96519483038</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>5911382.0348051693</v>
       </c>
@@ -4162,8 +4601,20 @@
         <f t="shared" si="2"/>
         <v>1.1891452713104567E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>1.1891452713104567E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>1.1891454206320822E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>563</v>
       </c>
@@ -4180,7 +4631,7 @@
         <f t="shared" si="0"/>
         <v>692942.05104778346</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>4759799.9489522167</v>
       </c>
@@ -4188,8 +4639,20 @@
         <f t="shared" si="2"/>
         <v>9.5749074723214533E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>9.5749074723214533E-3</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>9.5749086746478498E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>564</v>
       </c>
@@ -4206,7 +4669,7 @@
         <f t="shared" si="0"/>
         <v>587463.25586765131</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>1059884.7441323488</v>
       </c>
@@ -4214,8 +4677,20 @@
         <f t="shared" si="2"/>
         <v>2.1320850592946249E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>2.1320850592946249E-3</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>2.132085327021718E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>565</v>
       </c>
@@ -4232,7 +4707,7 @@
         <f t="shared" si="0"/>
         <v>529283.91072955425</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>4219074.0892704455</v>
       </c>
@@ -4240,8 +4715,20 @@
         <f t="shared" si="2"/>
         <v>8.4871726662642914E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="4"/>
+        <v>8.4871726662642914E-3</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>8.4871737320032295E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>566</v>
       </c>
@@ -4258,7 +4745,7 @@
         <f t="shared" si="0"/>
         <v>662013.52296954137</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>4986177.4770304589</v>
       </c>
@@ -4266,8 +4753,20 @@
         <f t="shared" si="2"/>
         <v>1.0030292973478738E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="4"/>
+        <v>1.0030292973478738E-2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>1.0030294232988141E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>567</v>
       </c>
@@ -4284,7 +4783,7 @@
         <f t="shared" si="0"/>
         <v>530560.89372204978</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>3324556.1062779501</v>
       </c>
@@ -4292,8 +4791,20 @@
         <f t="shared" si="2"/>
         <v>6.6877426458143412E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="4"/>
+        <v>6.6877426458143412E-3</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>6.6877434855978626E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>568</v>
       </c>
@@ -4310,7 +4821,7 @@
         <f t="shared" si="0"/>
         <v>605417.63674213877</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>4144319.3632578612</v>
       </c>
@@ -4318,8 +4829,20 @@
         <f t="shared" si="2"/>
         <v>8.3367945847554661E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="4"/>
+        <v>8.3367945847554661E-3</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>8.3367956316113458E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>569</v>
       </c>
@@ -4336,7 +4859,7 @@
         <f t="shared" si="0"/>
         <v>646970.66331794381</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>2722160.3366820561</v>
       </c>
@@ -4344,8 +4867,20 @@
         <f t="shared" si="2"/>
         <v>5.4759514324318852E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>5.4759514324318852E-3</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>5.4759521200501175E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>570</v>
       </c>
@@ -4362,7 +4897,7 @@
         <f t="shared" si="0"/>
         <v>565243.75179822883</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>8206441.2482017707</v>
       </c>
@@ -4370,8 +4905,20 @@
         <f t="shared" si="2"/>
         <v>1.650823910065195E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>1.650823910065195E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>1.6508241173600609E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>571</v>
       </c>
@@ -4388,7 +4935,7 @@
         <f t="shared" si="0"/>
         <v>1468964.6155873272</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>4582198.3844126724</v>
       </c>
@@ -4396,8 +4943,20 @@
         <f t="shared" si="2"/>
         <v>9.2176406616060157E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>9.2176406616060157E-3</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>9.2176418190702217E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>573</v>
       </c>
@@ -4414,7 +4973,7 @@
         <f t="shared" si="0"/>
         <v>1207489.5780439391</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>2904135.4219560609</v>
       </c>
@@ -4422,8 +4981,20 @@
         <f t="shared" si="2"/>
         <v>5.8420161037317699E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>5.8420161037317699E-3</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>5.8420168373169443E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>574</v>
       </c>
@@ -4440,7 +5011,7 @@
         <f t="shared" si="0"/>
         <v>1139375.3052242268</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>4289712.6947757732</v>
       </c>
@@ -4448,8 +5019,20 @@
         <f t="shared" si="2"/>
         <v>8.6292706785633614E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>8.6292706785633614E-3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>8.6292717621456252E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>575</v>
       </c>
@@ -4466,7 +5049,7 @@
         <f t="shared" si="0"/>
         <v>926553.31969491881</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>5816065.6803050814</v>
       </c>
@@ -4474,8 +5057,20 @@
         <f t="shared" si="2"/>
         <v>1.1699712454117793E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>1.1699712454117793E-2</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="5"/>
+        <v>1.1699713923257119E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>576</v>
       </c>
@@ -4492,7 +5087,7 @@
         <f t="shared" si="0"/>
         <v>948185.41158779338</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>1809821.5884122066</v>
       </c>
@@ -4500,8 +5095,20 @@
         <f t="shared" si="2"/>
         <v>3.64067280900563E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>3.64067280900563E-3</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="5"/>
+        <v>3.6406732661669163E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>577</v>
       </c>
@@ -4518,7 +5125,7 @@
         <f t="shared" si="0"/>
         <v>1726251.1489153302</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>4990858.8510846701</v>
       </c>
@@ -4526,8 +5133,20 @@
         <f t="shared" si="2"/>
         <v>1.0039710117874117E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>1.0039710117874117E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="5"/>
+        <v>1.0039711378566038E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>578</v>
       </c>
@@ -4544,7 +5163,7 @@
         <f t="shared" si="0"/>
         <v>1412930.6018766228</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>7956984.398123377</v>
       </c>
@@ -4552,8 +5171,20 @@
         <f t="shared" si="2"/>
         <v>1.6006426780080959E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>1.6006426780080959E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="5"/>
+        <v>1.600642879001677E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>579</v>
       </c>
@@ -4570,7 +5201,7 @@
         <f t="shared" si="0"/>
         <v>1444472.0817912626</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F53">
         <f t="shared" si="1"/>
         <v>8391466.9182087369</v>
       </c>
@@ -4578,8 +5209,20 @@
         <f t="shared" si="2"/>
         <v>1.6880440388378541E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>1.6880440388378541E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>1.6880442508064721E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>580</v>
       </c>
@@ -4596,7 +5239,7 @@
         <f t="shared" si="0"/>
         <v>1044878.5637795562</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F54">
         <f t="shared" si="1"/>
         <v>5774630.4362204438</v>
       </c>
@@ -4604,8 +5247,20 @@
         <f t="shared" si="2"/>
         <v>1.1616360499737695E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>1.1616360499737695E-2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="5"/>
+        <v>1.1616361958410469E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>581</v>
       </c>
@@ -4622,7 +5277,7 @@
         <f t="shared" si="0"/>
         <v>835402.27369058679</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55">
         <f t="shared" si="1"/>
         <v>3681718.7263094131</v>
       </c>
@@ -4630,8 +5285,20 @@
         <f t="shared" si="2"/>
         <v>7.4062180178992472E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>7.4062180178992472E-3</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="5"/>
+        <v>7.4062189479021162E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>582</v>
       </c>
@@ -4648,7 +5315,7 @@
         <f t="shared" si="0"/>
         <v>803298.92125924875</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F56">
         <f t="shared" si="1"/>
         <v>4917643.0787407514</v>
       </c>
@@ -4656,8 +5323,20 @@
         <f t="shared" si="2"/>
         <v>9.892427825923613E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>9.892427825923613E-3</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="5"/>
+        <v>9.8924290681212147E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>583</v>
       </c>
@@ -4674,7 +5353,7 @@
         <f t="shared" si="0"/>
         <v>1121369.8450300395</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57">
         <f t="shared" si="1"/>
         <v>4392906.1549699605</v>
       </c>
@@ -4682,8 +5361,20 @@
         <f t="shared" si="2"/>
         <v>8.836856678753462E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
+        <v>8.836856678753462E-3</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="5"/>
+        <v>8.8368577884024146E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>584</v>
       </c>
@@ -4700,7 +5391,7 @@
         <f t="shared" si="0"/>
         <v>1129976.7103994593</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F58">
         <f t="shared" si="1"/>
         <v>3440455.2896005409</v>
       </c>
@@ -4708,8 +5399,20 @@
         <f t="shared" si="2"/>
         <v>6.920887729291161E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>6.920887729291161E-3</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>6.9208885983508385E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>585</v>
       </c>
@@ -4726,7 +5429,7 @@
         <f t="shared" si="0"/>
         <v>1669502.0247288279</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F59">
         <f t="shared" si="1"/>
         <v>2792965.9752711719</v>
       </c>
@@ -4734,8 +5437,20 @@
         <f t="shared" si="2"/>
         <v>5.6183854517773109E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>5.6183854517773109E-3</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="5"/>
+        <v>5.618386157281061E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>586</v>
       </c>
@@ -4752,7 +5467,7 @@
         <f t="shared" si="0"/>
         <v>1666360.646567289</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60">
         <f t="shared" si="1"/>
         <v>6180025.3534327112</v>
       </c>
@@ -4760,8 +5475,20 @@
         <f t="shared" si="2"/>
         <v>1.2431860912294181E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>1.2431860912294181E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="5"/>
+        <v>1.2431862473369791E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>587</v>
       </c>
@@ -4778,7 +5505,7 @@
         <f t="shared" si="0"/>
         <v>1754983.2662464799</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F61">
         <f t="shared" si="1"/>
         <v>6793861.7337535201</v>
       </c>
@@ -4786,8 +5513,20 @@
         <f t="shared" si="2"/>
         <v>1.3666666283896043E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>1.3666666283896043E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="5"/>
+        <v>1.3666668000026843E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>588</v>
       </c>
@@ -4804,7 +5543,7 @@
         <f t="shared" si="0"/>
         <v>1356385.7949689198</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62">
         <f t="shared" si="1"/>
         <v>2598938.2050310802</v>
       </c>
@@ -4812,8 +5551,20 @@
         <f t="shared" si="2"/>
         <v>5.2280753616402902E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>5.2280753616402902E-3</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="5"/>
+        <v>5.2280760181325882E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -4830,7 +5581,7 @@
         <f t="shared" si="0"/>
         <v>2055661.6816594813</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F63">
         <f t="shared" si="1"/>
         <v>4355981.3183405185</v>
       </c>
@@ -4838,8 +5589,20 @@
         <f t="shared" si="2"/>
         <v>8.7625779489855608E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>8.7625779489855608E-3</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="5"/>
+        <v>8.7625790493072921E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>591</v>
       </c>
@@ -4856,7 +5619,7 @@
         <f t="shared" si="0"/>
         <v>2450709.140217904</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F64">
         <f t="shared" si="1"/>
         <v>4364447.859782096</v>
       </c>
@@ -4864,8 +5627,20 @@
         <f t="shared" si="2"/>
         <v>8.779609410766118E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>8.779609410766118E-3</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="5"/>
+        <v>8.7796105132264997E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>592</v>
       </c>
@@ -4882,7 +5657,7 @@
         <f t="shared" si="0"/>
         <v>2500562.5562449303</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F65">
         <f t="shared" si="1"/>
         <v>13063994.44375507</v>
       </c>
@@ -4890,8 +5665,20 @@
         <f t="shared" si="2"/>
         <v>2.6279788932182305E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>2.6279788932182305E-2</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="5"/>
+        <v>2.6279792232149851E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>593</v>
       </c>
@@ -4908,7 +5695,7 @@
         <f t="shared" si="0"/>
         <v>2288251.3639126201</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F66">
         <f t="shared" si="1"/>
         <v>5410218.6360873803</v>
       </c>
@@ -4916,8 +5703,20 @@
         <f t="shared" si="2"/>
         <v>1.0883302533958215E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>1.0883302533958215E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="5"/>
+        <v>1.0883303900580499E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>594</v>
       </c>
@@ -4931,19 +5730,31 @@
         <v>6586705</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">0.3*C67*SUM(D$2:D$132)/SUM(C$2:C$132)</f>
+        <f t="shared" ref="E67:E130" si="6">0.3*C67*SUM(D$2:D$132)/SUM(C$2:C$132)</f>
         <v>1985657.4740108754</v>
       </c>
-      <c r="F67" s="19">
-        <f t="shared" ref="F67:F130" si="4">D67-E67</f>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="7">D67-E67</f>
         <v>4601047.5259891246</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G130" si="5">F67/(SUM(D$2:D$132)-SUM(E$2:E$132))</f>
+        <f t="shared" ref="G67:G130" si="8">F67/(SUM(D$2:D$132)-SUM(E$2:E$132))</f>
         <v>9.2555579666320272E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" t="b">
+        <f t="shared" ref="H67:H130" si="9" xml:space="preserve"> G67 &gt; 10^-7</f>
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="10">G67*H67</f>
+        <v>9.2555579666320272E-3</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="11" xml:space="preserve"> I67/SUM(I$2:I$132)</f>
+        <v>9.2555591288575306E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>595</v>
       </c>
@@ -4957,19 +5768,31 @@
         <v>5190462</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2036481.3971121982</v>
       </c>
-      <c r="F68" s="19">
-        <f t="shared" si="4"/>
+      <c r="F68">
+        <f t="shared" si="7"/>
         <v>3153980.6028878018</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.3446095983078271E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>6.3446095983078271E-3</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="11"/>
+        <v>6.3446103950039433E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>596</v>
       </c>
@@ -4983,19 +5806,31 @@
         <v>10798759</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2806680.9192059622</v>
       </c>
-      <c r="F69" s="19">
-        <f t="shared" si="4"/>
+      <c r="F69">
+        <f t="shared" si="7"/>
         <v>7992078.0807940383</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6077021924422806E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>1.6077021924422806E-2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="11"/>
+        <v>1.607702394322329E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>597</v>
       </c>
@@ -5009,19 +5844,31 @@
         <v>9458264</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2527583.5163661358</v>
       </c>
-      <c r="F70" s="19">
-        <f t="shared" si="4"/>
+      <c r="F70">
+        <f t="shared" si="7"/>
         <v>6930680.4836338647</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3941893580133854E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>1.3941893580133854E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="11"/>
+        <v>1.3941895330825098E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>598</v>
       </c>
@@ -5035,19 +5882,31 @@
         <v>16311581</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5599544.882433123</v>
       </c>
-      <c r="F71" s="19">
-        <f t="shared" si="4"/>
+      <c r="F71">
+        <f t="shared" si="7"/>
         <v>10712036.117566876</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1548543166913261E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>2.1548543166913261E-2</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>2.1548545872775673E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>600</v>
       </c>
@@ -5061,19 +5920,31 @@
         <v>12532316</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4451409.4738803767</v>
       </c>
-      <c r="F72" s="19">
-        <f t="shared" si="4"/>
+      <c r="F72">
+        <f t="shared" si="7"/>
         <v>8080906.5261196233</v>
       </c>
       <c r="G72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.62557109773293E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>1.62557109773293E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>1.6255713018567867E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>601</v>
       </c>
@@ -5087,19 +5958,31 @@
         <v>19577098</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5596786.5991693325</v>
       </c>
-      <c r="F73" s="19">
-        <f t="shared" si="4"/>
+      <c r="F73">
+        <f t="shared" si="7"/>
         <v>13980311.400830667</v>
       </c>
       <c r="G73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8123070198919024E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>2.8123070198919024E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>2.8123073730348412E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>602</v>
       </c>
@@ -5113,19 +5996,31 @@
         <v>4286977</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>56238.330989503884</v>
       </c>
-      <c r="F74" s="19">
-        <f t="shared" si="4"/>
+      <c r="F74">
+        <f t="shared" si="7"/>
         <v>4230738.6690104958</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.5106373649727063E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>8.5106373649727063E-3</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>8.510638433658119E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>604</v>
       </c>
@@ -5139,19 +6034,31 @@
         <v>4213989</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>61805.976836784466</v>
       </c>
-      <c r="F75" s="19">
-        <f t="shared" si="4"/>
+      <c r="F75">
+        <f t="shared" si="7"/>
         <v>4152183.0231632157</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.3526132781449117E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>8.3526132781449117E-3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>8.3526143269871539E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>605</v>
       </c>
@@ -5165,19 +6072,31 @@
         <v>6382032</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60401.295545039364</v>
       </c>
-      <c r="F76" s="19">
-        <f t="shared" si="4"/>
+      <c r="F76">
+        <f t="shared" si="7"/>
         <v>6321630.7044549603</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2716717029812755E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>1.2716717029812755E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>1.2716718626657905E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>606</v>
       </c>
@@ -5191,19 +6110,31 @@
         <v>5479228</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70617.159485003736</v>
       </c>
-      <c r="F77" s="19">
-        <f t="shared" si="4"/>
+      <c r="F77">
+        <f t="shared" si="7"/>
         <v>5408610.8405149961</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0880068260668353E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>1.0880068260668353E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>1.0880069626884507E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>607</v>
       </c>
@@ -5217,19 +6148,31 @@
         <v>3444161</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>116179.91265724484</v>
       </c>
-      <c r="F78" s="19">
-        <f t="shared" si="4"/>
+      <c r="F78">
+        <f t="shared" si="7"/>
         <v>3327981.0873427549</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.694632405287778E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>6.694632405287778E-3</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>6.6946332459364502E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>608</v>
       </c>
@@ -5243,19 +6186,31 @@
         <v>4020302</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>98608.626680506131</v>
       </c>
-      <c r="F79" s="19">
-        <f t="shared" si="4"/>
+      <c r="F79">
+        <f t="shared" si="7"/>
         <v>3921693.3733194941</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.8889557517257142E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>7.8889557517257142E-3</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>7.8889567423462252E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>609</v>
       </c>
@@ -5269,19 +6224,31 @@
         <v>3752863</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>110050.39429326622</v>
       </c>
-      <c r="F80" s="19">
-        <f t="shared" si="4"/>
+      <c r="F80">
+        <f t="shared" si="7"/>
         <v>3642812.6057067337</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.3279536982066434E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>7.3279536982066434E-3</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>7.3279546183818182E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>610</v>
       </c>
@@ -5295,19 +6262,31 @@
         <v>4142561</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>126165.91965856003</v>
       </c>
-      <c r="F81" s="19">
-        <f t="shared" si="4"/>
+      <c r="F81">
+        <f t="shared" si="7"/>
         <v>4016395.0803414402</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.0794595737205092E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>8.0794595737205092E-3</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>8.0794605882626904E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>611</v>
       </c>
@@ -5321,19 +6300,31 @@
         <v>3510170</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>72277.237375247947</v>
       </c>
-      <c r="F82" s="19">
-        <f t="shared" si="4"/>
+      <c r="F82">
+        <f t="shared" si="7"/>
         <v>3437892.7626247522</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.9157328994765375E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>6.9157328994765375E-3</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>6.9157337678889203E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>612</v>
       </c>
@@ -5347,19 +6338,31 @@
         <v>3179630</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>86732.684850297548</v>
       </c>
-      <c r="F83" s="19">
-        <f t="shared" si="4"/>
+      <c r="F83">
+        <f t="shared" si="7"/>
         <v>3092897.3151497026</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2217332517239257E-3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>6.2217332517239257E-3</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>6.2217340329903913E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>613</v>
       </c>
@@ -5373,19 +6376,31 @@
         <v>4165083</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92121.553078628742</v>
       </c>
-      <c r="F84" s="19">
-        <f t="shared" si="4"/>
+      <c r="F84">
+        <f t="shared" si="7"/>
         <v>4072961.4469213714</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.1932495925988221E-3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>8.1932495925988221E-3</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>8.1932506214296777E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>614</v>
       </c>
@@ -5399,19 +6414,31 @@
         <v>2310158</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75801.710434535649</v>
       </c>
-      <c r="F85" s="19">
-        <f t="shared" si="4"/>
+      <c r="F85">
+        <f t="shared" si="7"/>
         <v>2234356.2895654645</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.4946751885020396E-3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>4.4946751885020396E-3</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>4.4946757529008745E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>615</v>
       </c>
@@ -5425,19 +6452,31 @@
         <v>2819582</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65968.941392319946</v>
       </c>
-      <c r="F86" s="19">
-        <f t="shared" si="4"/>
+      <c r="F86">
+        <f t="shared" si="7"/>
         <v>2753613.0586076803</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.5392223483149783E-3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>5.5392223483149783E-3</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>5.5392230438781748E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>616</v>
       </c>
@@ -5451,19 +6490,31 @@
         <v>2656148</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92351.410017277958</v>
       </c>
-      <c r="F87" s="19">
-        <f t="shared" si="4"/>
+      <c r="F87">
+        <f t="shared" si="7"/>
         <v>2563796.589982722</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.157383795581923E-3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>5.157383795581923E-3</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="11"/>
+        <v>5.1573844431974424E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>617</v>
       </c>
@@ -5477,19 +6528,31 @@
         <v>4671149</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>220739.28008278023</v>
       </c>
-      <c r="F88" s="19">
-        <f t="shared" si="4"/>
+      <c r="F88">
+        <f t="shared" si="7"/>
         <v>4450409.7199172201</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9525319843552949E-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>8.9525319843552949E-3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="11"/>
+        <v>8.9525331085296578E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>619</v>
       </c>
@@ -5503,19 +6566,31 @@
         <v>6471146</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>139548.70141991338</v>
       </c>
-      <c r="F89" s="19">
-        <f t="shared" si="4"/>
+      <c r="F89">
+        <f t="shared" si="7"/>
         <v>6331597.2985800868</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2736766027162586E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>1.2736766027162586E-2</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="11"/>
+        <v>1.27367676265253E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>620</v>
       </c>
@@ -5529,19 +6604,31 @@
         <v>2579124</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>195225.15989271918</v>
       </c>
-      <c r="F90" s="19">
-        <f t="shared" si="4"/>
+      <c r="F90">
+        <f t="shared" si="7"/>
         <v>2383898.8401072808</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.7954979331487017E-3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>4.7954979331487017E-3</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="11"/>
+        <v>4.7954985353220137E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>621</v>
       </c>
@@ -5555,19 +6642,31 @@
         <v>2420889</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>249445.85775408012</v>
       </c>
-      <c r="F91" s="19">
-        <f t="shared" si="4"/>
+      <c r="F91">
+        <f t="shared" si="7"/>
         <v>2171443.1422459199</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.368117860287065E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>4.368117860287065E-3</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="11"/>
+        <v>4.3681184087940262E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>622</v>
       </c>
@@ -5581,19 +6680,31 @@
         <v>5438934</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>215299.33253474921</v>
       </c>
-      <c r="F92" s="19">
-        <f t="shared" si="4"/>
+      <c r="F92">
+        <f t="shared" si="7"/>
         <v>5223634.6674652509</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0507966541997316E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>1.0507966541997316E-2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="11"/>
+        <v>1.0507967861488452E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>623</v>
       </c>
@@ -5607,19 +6718,31 @@
         <v>4875481</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>237518.83660417172</v>
       </c>
-      <c r="F93" s="19">
-        <f t="shared" si="4"/>
+      <c r="F93">
+        <f t="shared" si="7"/>
         <v>4637962.1633958286</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.329816179442273E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>9.329816179442273E-3</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="11"/>
+        <v>9.3298173509924198E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>624</v>
       </c>
@@ -5633,19 +6756,31 @@
         <v>3984051</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>229576.0023908494</v>
       </c>
-      <c r="F94" s="19">
-        <f t="shared" si="4"/>
+      <c r="F94">
+        <f t="shared" si="7"/>
         <v>3754474.9976091506</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.5525759684848502E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>7.5525759684848502E-3</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="11"/>
+        <v>7.5525769168659678E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>625</v>
       </c>
@@ -5659,19 +6794,31 @@
         <v>2730303</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>166518.58222141932</v>
       </c>
-      <c r="F95" s="19">
-        <f t="shared" si="4"/>
+      <c r="F95">
+        <f t="shared" si="7"/>
         <v>2563784.4177785804</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.157359309735955E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>5.157359309735955E-3</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="11"/>
+        <v>5.1573599573483996E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>626</v>
       </c>
@@ -5685,19 +6832,31 @@
         <v>4067405</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>241809.49945895674</v>
       </c>
-      <c r="F96" s="19">
-        <f t="shared" si="4"/>
+      <c r="F96">
+        <f t="shared" si="7"/>
         <v>3825595.5005410435</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.695643375153432E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>7.695643375153432E-3</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="11"/>
+        <v>7.6956443414996018E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>627</v>
       </c>
@@ -5711,19 +6870,31 @@
         <v>8084442</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>156992.28909740254</v>
       </c>
-      <c r="F97" s="19">
-        <f t="shared" si="4"/>
+      <c r="F97">
+        <f t="shared" si="7"/>
         <v>7927449.7109025978</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5947014220646573E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>1.5947014220646573E-2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="11"/>
+        <v>1.5947016223121918E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>628</v>
       </c>
@@ -5737,19 +6908,31 @@
         <v>3444676</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>195812.57206926716</v>
       </c>
-      <c r="F98" s="19">
-        <f t="shared" si="4"/>
+      <c r="F98">
+        <f t="shared" si="7"/>
         <v>3248863.4279307327</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.5354777608864906E-3</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>6.5354777608864906E-3</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="11"/>
+        <v>6.5354785815500268E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>629</v>
       </c>
@@ -5763,19 +6946,31 @@
         <v>4472535</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>145371.74386569305</v>
       </c>
-      <c r="F99" s="19">
-        <f t="shared" si="4"/>
+      <c r="F99">
+        <f t="shared" si="7"/>
         <v>4327163.256134307</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.7046069665671043E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="10"/>
+        <v>8.7046069665671043E-3</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="11"/>
+        <v>8.7046080596093877E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>630</v>
       </c>
@@ -5789,19 +6984,31 @@
         <v>4088433</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>164552.02841297616</v>
       </c>
-      <c r="F100" s="19">
-        <f t="shared" si="4"/>
+      <c r="F100">
+        <f t="shared" si="7"/>
         <v>3923880.9715870237</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.8933563675547096E-3</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="10"/>
+        <v>7.8933563675547096E-3</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="11"/>
+        <v>7.893357358727808E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>631</v>
       </c>
@@ -5815,19 +7022,31 @@
         <v>2574731</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>143022.09515950124</v>
       </c>
-      <c r="F101" s="19">
-        <f t="shared" si="4"/>
+      <c r="F101">
+        <f t="shared" si="7"/>
         <v>2431708.9048404987</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.8916736024994757E-3</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="10"/>
+        <v>4.8916736024994757E-3</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="11"/>
+        <v>4.8916742167496195E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>632</v>
       </c>
@@ -5841,19 +7060,31 @@
         <v>3327772</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>153978.60923511305</v>
       </c>
-      <c r="F102" s="19">
-        <f t="shared" si="4"/>
+      <c r="F102">
+        <f t="shared" si="7"/>
         <v>3173793.390764887</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.3844653932417263E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="10"/>
+        <v>6.3844653932417263E-3</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="11"/>
+        <v>6.3844661949425561E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>633</v>
       </c>
@@ -5867,19 +7098,31 @@
         <v>4578189</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>178088.04813342897</v>
       </c>
-      <c r="F103" s="19">
-        <f t="shared" si="4"/>
+      <c r="F103">
+        <f t="shared" si="7"/>
         <v>4400100.9518665709</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.8513298741200765E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="10"/>
+        <v>8.8513298741200765E-3</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="11"/>
+        <v>8.8513309855864364E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>634</v>
       </c>
@@ -5893,19 +7136,31 @@
         <v>4001040</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>222348.27865332461</v>
       </c>
-      <c r="F104" s="19">
-        <f t="shared" si="4"/>
+      <c r="F104">
+        <f t="shared" si="7"/>
         <v>3778691.7213466754</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.601290807670605E-3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="10"/>
+        <v>7.601290807670605E-3</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="11"/>
+        <v>7.601291762168871E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>635</v>
       </c>
@@ -5919,19 +7174,31 @@
         <v>2352852</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>154438.32311241145</v>
       </c>
-      <c r="F105" s="19">
-        <f t="shared" si="4"/>
+      <c r="F105">
+        <f t="shared" si="7"/>
         <v>2198413.6768875886</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.4223723198111176E-3</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="10"/>
+        <v>4.4223723198111176E-3</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="11"/>
+        <v>4.4223728751308419E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>636</v>
       </c>
@@ -5945,19 +7212,31 @@
         <v>6439705</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140953.38271165849</v>
       </c>
-      <c r="F106" s="19">
-        <f t="shared" si="4"/>
+      <c r="F106">
+        <f t="shared" si="7"/>
         <v>6298751.6172883417</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2670693006740152E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="10"/>
+        <v>1.2670693006740152E-2</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="11"/>
+        <v>1.267069459780604E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>637</v>
       </c>
@@ -5971,19 +7250,31 @@
         <v>6380874</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>235679.98109497811</v>
       </c>
-      <c r="F107" s="19">
-        <f t="shared" si="4"/>
+      <c r="F107">
+        <f t="shared" si="7"/>
         <v>6145194.0189050222</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2361793512651993E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="10"/>
+        <v>1.2361793512651993E-2</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="11"/>
+        <v>1.2361795064929201E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>638</v>
       </c>
@@ -5997,19 +7288,31 @@
         <v>5501943</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>196348.90492611527</v>
       </c>
-      <c r="F108" s="19">
-        <f t="shared" si="4"/>
+      <c r="F108">
+        <f t="shared" si="7"/>
         <v>5305594.0950738844</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0672837743361533E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="10"/>
+        <v>1.0672837743361533E-2</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="11"/>
+        <v>1.0672839083555636E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>639</v>
       </c>
@@ -6023,19 +7326,31 @@
         <v>4019137</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>337915.2394741716</v>
       </c>
-      <c r="F109" s="19">
-        <f t="shared" si="4"/>
+      <c r="F109">
+        <f t="shared" si="7"/>
         <v>3681221.7605258282</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.4052183117255073E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="10"/>
+        <v>7.4052183117255073E-3</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="11"/>
+        <v>7.4052192416028421E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>641</v>
       </c>
@@ -6049,19 +7364,31 @@
         <v>4015694</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>354490.47871676378</v>
       </c>
-      <c r="F110" s="19">
-        <f t="shared" si="4"/>
+      <c r="F110">
+        <f t="shared" si="7"/>
         <v>3661203.5212832363</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.3649492267718834E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="10"/>
+        <v>7.3649492267718834E-3</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="11"/>
+        <v>7.3649501515926077E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>642</v>
       </c>
@@ -6075,19 +7402,31 @@
         <v>5021070</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>291765.07412538258</v>
       </c>
-      <c r="F111" s="19">
-        <f t="shared" si="4"/>
+      <c r="F111">
+        <f t="shared" si="7"/>
         <v>4729304.925874617</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.5135630823332575E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="10"/>
+        <v>9.5135630823332575E-3</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="11"/>
+        <v>9.5135642769566039E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>643</v>
       </c>
@@ -6101,19 +7440,31 @@
         <v>4461437</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>323306.55404002254</v>
       </c>
-      <c r="F112" s="19">
-        <f t="shared" si="4"/>
+      <c r="F112">
+        <f t="shared" si="7"/>
         <v>4138130.4459599773</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.324344836632306E-3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="10"/>
+        <v>8.324344836632306E-3</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="11"/>
+        <v>8.3243458819248651E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>644</v>
       </c>
@@ -6127,19 +7478,31 @@
         <v>6040910</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>330457.65879799763</v>
       </c>
-      <c r="F113" s="19">
-        <f t="shared" si="4"/>
+      <c r="F113">
+        <f t="shared" si="7"/>
         <v>5710452.341202002</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.148725857777841E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="H113" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="10"/>
+        <v>1.148725857777841E-2</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="11"/>
+        <v>1.1487260020239786E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>645</v>
       </c>
@@ -6153,19 +7516,31 @@
         <v>4524924</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>292301.40698223066</v>
       </c>
-      <c r="F114" s="19">
-        <f t="shared" si="4"/>
+      <c r="F114">
+        <f t="shared" si="7"/>
         <v>4232622.593017769</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.5144271036692882E-3</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="10"/>
+        <v>8.5144271036692882E-3</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="11"/>
+        <v>8.5144281728305807E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>646</v>
       </c>
@@ -6179,19 +7554,31 @@
         <v>4154771</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>339166.68280681723</v>
       </c>
-      <c r="F115" s="19">
-        <f t="shared" si="4"/>
+      <c r="F115">
+        <f t="shared" si="7"/>
         <v>3815604.3171931827</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7.6755449136380847E-3</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="10"/>
+        <v>7.6755449136380847E-3</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="11"/>
+        <v>7.6755458774604799E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>647</v>
       </c>
@@ -6205,19 +7592,31 @@
         <v>7026280</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>491766.1504100351</v>
       </c>
-      <c r="F116" s="19">
-        <f t="shared" si="4"/>
+      <c r="F116">
+        <f t="shared" si="7"/>
         <v>6534513.8495899653</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.3144956964042167E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="10"/>
+        <v>1.3144956964042167E-2</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="11"/>
+        <v>1.3144958614661641E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>648</v>
       </c>
@@ -6231,19 +7630,31 @@
         <v>5476668</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>461220.71722954162</v>
       </c>
-      <c r="F117" s="19">
-        <f t="shared" si="4"/>
+      <c r="F117">
+        <f t="shared" si="7"/>
         <v>5015447.2827704586</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.008917269210116E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="10"/>
+        <v>1.008917269210116E-2</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="11"/>
+        <v>1.0089173959004123E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>649</v>
       </c>
@@ -6257,19 +7668,31 @@
         <v>4757630</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>291943.85174433189</v>
       </c>
-      <c r="F118" s="19">
-        <f t="shared" si="4"/>
+      <c r="F118">
+        <f t="shared" si="7"/>
         <v>4465686.1482556686</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.9832623489539982E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="10"/>
+        <v>8.9832623489539982E-3</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="11"/>
+        <v>8.9832634769871911E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>650</v>
       </c>
@@ -6283,19 +7706,31 @@
         <v>6769316</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>328772.04124790349</v>
       </c>
-      <c r="F119" s="19">
-        <f t="shared" si="4"/>
+      <c r="F119">
+        <f t="shared" si="7"/>
         <v>6440543.9587520966</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2955925277919559E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="10"/>
+        <v>1.2955925277919559E-2</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="11"/>
+        <v>1.2955926904802221E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>651</v>
       </c>
@@ -6309,19 +7744,31 @@
         <v>7230142</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>340341.50715991313</v>
       </c>
-      <c r="F120" s="19">
-        <f t="shared" si="4"/>
+      <c r="F120">
+        <f t="shared" si="7"/>
         <v>6889800.492840087</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.385965858422695E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="H120" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="10"/>
+        <v>1.385965858422695E-2</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="11"/>
+        <v>1.38596603245919E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>652</v>
       </c>
@@ -6335,19 +7782,31 @@
         <v>3624843</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>428504.41296180565</v>
       </c>
-      <c r="F121" s="19">
-        <f t="shared" si="4"/>
+      <c r="F121">
+        <f t="shared" si="7"/>
         <v>3196338.5870381943</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.4298177548067874E-3</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="H121" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="10"/>
+        <v>6.4298177548067874E-3</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="11"/>
+        <v>6.4298185622025383E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>653</v>
       </c>
@@ -6361,19 +7820,31 @@
         <v>6566534</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>325732.82172576408</v>
       </c>
-      <c r="F122" s="19">
-        <f t="shared" si="4"/>
+      <c r="F122">
+        <f t="shared" si="7"/>
         <v>6240801.1782742357</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2554118760450114E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7">
+      <c r="H122" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="10"/>
+        <v>1.2554118760450114E-2</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="11"/>
+        <v>1.255412033687771E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>654</v>
       </c>
@@ -6387,19 +7858,31 @@
         <v>5774497</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>364093.3908203303</v>
       </c>
-      <c r="F123" s="19">
-        <f t="shared" si="4"/>
+      <c r="F123">
+        <f t="shared" si="7"/>
         <v>5410403.60917967</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0883674629479569E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="10"/>
+        <v>1.0883674629479569E-2</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="11"/>
+        <v>1.0883675996148576E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>655</v>
       </c>
@@ -6413,19 +7896,31 @@
         <v>5899797</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>381434.81985841983</v>
       </c>
-      <c r="F124" s="19">
-        <f t="shared" si="4"/>
+      <c r="F124">
+        <f t="shared" si="7"/>
         <v>5518362.1801415803</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1100846220489794E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="H124" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="10"/>
+        <v>1.1100846220489794E-2</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="11"/>
+        <v>1.1100847614429157E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>656</v>
       </c>
@@ -6439,19 +7934,31 @@
         <v>4349255</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>366187.64292802301</v>
       </c>
-      <c r="F125" s="19">
-        <f t="shared" si="4"/>
+      <c r="F125">
+        <f t="shared" si="7"/>
         <v>3983067.3570719771</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.012416868146615E-3</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="10"/>
+        <v>8.012416868146615E-3</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="11"/>
+        <v>8.0124178742702074E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>657</v>
       </c>
@@ -6465,19 +7972,31 @@
         <v>2435386</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>446356.63519689342</v>
       </c>
-      <c r="F126" s="19">
-        <f t="shared" si="4"/>
+      <c r="F126">
+        <f t="shared" si="7"/>
         <v>1989029.3648031065</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.0011707071664678E-3</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="H126" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="10"/>
+        <v>4.0011707071664678E-3</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="11"/>
+        <v>4.0011712095956737E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>658</v>
       </c>
@@ -6491,19 +8010,31 @@
         <v>4960366</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>36036.460048224333</v>
       </c>
-      <c r="F127" s="19">
-        <f t="shared" si="4"/>
+      <c r="F127">
+        <f t="shared" si="7"/>
         <v>4924329.5399517752</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9.9058784431973312E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="H127" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="10"/>
+        <v>9.9058784431973312E-3</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="11"/>
+        <v>9.9058796870839343E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>660</v>
       </c>
@@ -6517,19 +8048,31 @@
         <v>6294545</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44873.182356293517</v>
       </c>
-      <c r="F128" s="19">
-        <f t="shared" si="4"/>
+      <c r="F128">
+        <f t="shared" si="7"/>
         <v>6249671.8176437067</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.2571963113593928E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7">
+      <c r="H128" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="10"/>
+        <v>1.2571963113593928E-2</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="11"/>
+        <v>1.2571964692262249E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>662</v>
       </c>
@@ -6543,19 +8086,31 @@
         <v>5858944</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>104150.73286793679</v>
       </c>
-      <c r="F129" s="19">
-        <f t="shared" si="4"/>
+      <c r="F129">
+        <f t="shared" si="7"/>
         <v>5754793.2671320634</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1576455659078194E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
+      <c r="H129" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="10"/>
+        <v>1.1576455659078194E-2</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="11"/>
+        <v>1.1576457112740097E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>664</v>
       </c>
@@ -6569,19 +8124,31 @@
         <v>347644</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11365.148633210367</v>
       </c>
-      <c r="F130" s="19">
-        <f t="shared" si="4"/>
+      <c r="F130">
+        <f t="shared" si="7"/>
         <v>336278.85136678966</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.7646517107180918E-4</v>
       </c>
-    </row>
-    <row r="131" spans="1:7">
+      <c r="H130" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="10"/>
+        <v>6.7646517107180918E-4</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="11"/>
+        <v>6.7646525601591269E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>666</v>
       </c>
@@ -6595,19 +8162,31 @@
         <v>43830</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E132" si="6">0.3*C131*SUM(D$2:D$132)/SUM(C$2:C$132)</f>
+        <f t="shared" ref="E131:E132" si="12">0.3*C131*SUM(D$2:D$132)/SUM(C$2:C$132)</f>
         <v>893.88809474688276</v>
       </c>
-      <c r="F131" s="19">
-        <f t="shared" ref="F131:F132" si="7">D131-E131</f>
+      <c r="F131">
+        <f t="shared" ref="F131:F132" si="13">D131-E131</f>
         <v>42936.111905253114</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G132" si="8">F131/(SUM(D$2:D$132)-SUM(E$2:E$132))</f>
+        <f t="shared" ref="G131:G132" si="14">F131/(SUM(D$2:D$132)-SUM(E$2:E$132))</f>
         <v>8.6371129695174769E-5</v>
       </c>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="H131" t="b">
+        <f t="shared" ref="H131:H132" si="15" xml:space="preserve"> G131 &gt; 10^-7</f>
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I132" si="16">G131*H131</f>
+        <v>8.6371129695174769E-5</v>
+      </c>
+      <c r="J131">
+        <f t="shared" ref="J131:J132" si="17" xml:space="preserve"> I131/SUM(I$2:I$132)</f>
+        <v>8.6371140540845011E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>667</v>
       </c>
@@ -6621,16 +8200,28 @@
         <v>98425</v>
       </c>
       <c r="E132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>2426.267685741539</v>
       </c>
-      <c r="F132" s="19">
-        <f t="shared" si="7"/>
+      <c r="F132">
+        <f t="shared" si="13"/>
         <v>95998.732314258465</v>
       </c>
       <c r="G132">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.931129436588025E-4</v>
+      </c>
+      <c r="H132" t="b">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="16"/>
+        <v>1.931129436588025E-4</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="17"/>
+        <v>1.93112967908101E-4</v>
       </c>
     </row>
   </sheetData>
@@ -6640,7 +8231,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="E1:E1048576 F1:G1">
+  <conditionalFormatting sqref="E1:E1048576 F1:J1">
     <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
       <formula>25.54</formula>
     </cfRule>
@@ -6658,28 +8249,28 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" customWidth="1"/>
-    <col min="17" max="17" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.47265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.68359375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.68359375" customWidth="1"/>
+    <col min="12" max="12" width="24.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.15625" customWidth="1"/>
+    <col min="14" max="14" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.68359375" customWidth="1"/>
+    <col min="17" max="17" width="23.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.68359375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -6726,7 +8317,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6782,7 +8373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6838,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6894,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6957,7 +8548,7 @@
         <v>580790947</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7020,7 +8611,7 @@
         <v>85.320000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7082,7 +8673,7 @@
         <v>25.596</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7145,7 +8736,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7208,7 +8799,7 @@
         <v>515380010.65600002</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7264,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7327,7 +8918,7 @@
         <v>3153032515</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7390,7 +8981,7 @@
         <v>3069110653</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7446,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -7502,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -7565,7 +9156,7 @@
         <v>580790946.99999988</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -7621,7 +9212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -7684,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -7740,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -7796,7 +9387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -7852,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -7908,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -7964,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -8020,7 +9611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -8076,7 +9667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -8132,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -8188,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -8244,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -8300,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -8356,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -8412,7 +10003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -8468,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -8524,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -8580,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -8636,7 +10227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -8692,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -8748,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -8804,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -8860,7 +10451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -8916,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -8972,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -9028,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -9084,7 +10675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -9140,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -9196,7 +10787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -9252,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -9308,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -9364,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -9420,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -9476,7 +11067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -9532,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -9588,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -9644,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9700,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -9756,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -9812,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -9868,7 +11459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -9924,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -9980,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -10036,7 +11627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -10092,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -10148,7 +11739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -10204,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -10260,7 +11851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -10316,7 +11907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -10372,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -10428,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -10484,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -10540,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -10596,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -10652,7 +12243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -10708,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -10764,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -10820,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -10876,7 +12467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -10932,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -10988,7 +12579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -11044,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -11100,7 +12691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -11156,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -11246,30 +12837,30 @@
       <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.47265625" customWidth="1"/>
+    <col min="6" max="6" width="13.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.47265625" customWidth="1"/>
+    <col min="11" max="11" width="22.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.68359375" customWidth="1"/>
+    <col min="14" max="14" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -11320,7 +12911,7 @@
       </c>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>277</v>
       </c>
@@ -11381,7 +12972,7 @@
       </c>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>279</v>
       </c>
@@ -11442,7 +13033,7 @@
       </c>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>281</v>
       </c>
@@ -11503,7 +13094,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>283</v>
       </c>
@@ -11570,7 +13161,7 @@
         <v>465561052</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>284</v>
       </c>
@@ -11637,7 +13228,7 @@
         <v>85.327439592006911</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>285</v>
       </c>
@@ -11704,7 +13295,7 @@
         <v>25.598231877602071</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>286</v>
       </c>
@@ -11771,7 +13362,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -11839,7 +13430,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>288</v>
       </c>
@@ -11906,7 +13497,7 @@
         <v>325892772.77461576</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>289</v>
       </c>
@@ -11967,7 +13558,7 @@
       </c>
       <c r="S11" s="4"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>290</v>
       </c>
@@ -12034,7 +13625,7 @@
         <v>465561052</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -12095,7 +13686,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>292</v>
       </c>
@@ -12162,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>293</v>
       </c>
@@ -12223,7 +13814,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>294</v>
       </c>
@@ -12284,7 +13875,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -12345,7 +13936,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>297</v>
       </c>
@@ -12405,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>298</v>
       </c>
@@ -12465,7 +14056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>299</v>
       </c>
@@ -12525,7 +14116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>300</v>
       </c>
@@ -12585,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>301</v>
       </c>
@@ -12645,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>302</v>
       </c>
@@ -12705,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>303</v>
       </c>
@@ -12765,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>304</v>
       </c>
@@ -12825,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>305</v>
       </c>
@@ -12885,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>306</v>
       </c>
@@ -12945,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>307</v>
       </c>
@@ -13005,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>308</v>
       </c>
@@ -13065,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>309</v>
       </c>
@@ -13125,7 +14716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>310</v>
       </c>
@@ -13185,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>311</v>
       </c>
@@ -13245,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -13305,7 +14896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -13365,7 +14956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>314</v>
       </c>
@@ -13425,7 +15016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>315</v>
       </c>
@@ -13485,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -13545,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>317</v>
       </c>
@@ -13605,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -13665,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>319</v>
       </c>
@@ -13725,7 +15316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>320</v>
       </c>
@@ -13785,7 +15376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>321</v>
       </c>
@@ -13845,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>322</v>
       </c>
@@ -13905,7 +15496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>323</v>
       </c>
@@ -13965,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>324</v>
       </c>
@@ -14025,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>325</v>
       </c>
@@ -14085,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>326</v>
       </c>
@@ -14145,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>327</v>
       </c>
@@ -14205,7 +15796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>328</v>
       </c>
@@ -14265,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -14325,7 +15916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>330</v>
       </c>
@@ -14385,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>331</v>
       </c>
@@ -14445,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>332</v>
       </c>
@@ -14505,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>333</v>
       </c>
@@ -14565,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>334</v>
       </c>
@@ -14625,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>335</v>
       </c>
@@ -14685,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>336</v>
       </c>
@@ -14745,7 +16336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>337</v>
       </c>
@@ -14805,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>338</v>
       </c>
@@ -14865,7 +16456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>339</v>
       </c>
@@ -14925,7 +16516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>340</v>
       </c>
@@ -14985,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>341</v>
       </c>
@@ -15045,7 +16636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>342</v>
       </c>
@@ -15105,7 +16696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>343</v>
       </c>
@@ -15165,7 +16756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>344</v>
       </c>
@@ -15225,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>345</v>
       </c>
@@ -15285,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>346</v>
       </c>
@@ -15345,7 +16936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>347</v>
       </c>
@@ -15405,7 +16996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>348</v>
       </c>
@@ -15465,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>349</v>
       </c>
@@ -15525,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>350</v>
       </c>
@@ -15585,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>351</v>
       </c>
@@ -15645,7 +17236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>352</v>
       </c>
@@ -15705,7 +17296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -15765,7 +17356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>354</v>
       </c>
@@ -15825,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>355</v>
       </c>
@@ -15885,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>356</v>
       </c>
@@ -15945,7 +17536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>357</v>
       </c>
@@ -16005,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="J80" s="16"/>
     </row>
   </sheetData>
@@ -16071,30 +17662,30 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.47265625" customWidth="1"/>
+    <col min="8" max="8" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.68359375" customWidth="1"/>
+    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.68359375" customWidth="1"/>
+    <col min="15" max="15" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -16148,7 +17739,7 @@
       </c>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -16212,7 +17803,7 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>237</v>
       </c>
@@ -16276,7 +17867,7 @@
       </c>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -16340,7 +17931,7 @@
       </c>
       <c r="T4" s="4"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -16410,7 +18001,7 @@
         <v>48383968</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>267</v>
       </c>
@@ -16480,7 +18071,7 @@
         <v>85.453277493735541</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -16550,7 +18141,7 @@
         <v>25.63598324812066</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -16620,7 +18211,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>268</v>
       </c>
@@ -16690,7 +18281,7 @@
         <v>41481172.946690582</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -16754,7 +18345,7 @@
       </c>
       <c r="T10" s="4"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>243</v>
       </c>
@@ -16824,7 +18415,7 @@
         <v>125665360</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>244</v>
       </c>
@@ -16894,7 +18485,7 @@
         <v>125665360</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>245</v>
       </c>
@@ -16958,7 +18549,7 @@
       </c>
       <c r="T13" s="4"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>246</v>
       </c>
@@ -17022,7 +18613,7 @@
       </c>
       <c r="T14" s="4"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>247</v>
       </c>
@@ -17092,7 +18683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>248</v>
       </c>
@@ -17156,7 +18747,7 @@
       </c>
       <c r="T16" s="4"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -17226,7 +18817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -17290,7 +18881,7 @@
       </c>
       <c r="T18" s="4"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -17354,7 +18945,7 @@
       </c>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -17418,7 +19009,7 @@
       </c>
       <c r="T20" s="4"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>253</v>
       </c>
@@ -17481,7 +19072,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>254</v>
       </c>
@@ -17544,7 +19135,7 @@
         <v>-1.42</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>269</v>
       </c>
@@ -17607,7 +19198,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -17670,7 +19261,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>255</v>
       </c>
@@ -17733,7 +19324,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -17796,7 +19387,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>256</v>
       </c>
@@ -17859,7 +19450,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>257</v>
       </c>
@@ -17922,7 +19513,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -17985,7 +19576,7 @@
         <v>2.0299999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -18048,7 +19639,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
+    <row r="34" spans="7:7" x14ac:dyDescent="0.55000000000000004">
       <c r="G34">
         <f>SUM(G2:G30)</f>
         <v>614613</v>
@@ -18093,30 +19684,30 @@
       <selection activeCell="K26" sqref="K26:K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.3125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.15625" customWidth="1"/>
+    <col min="5" max="5" width="10.3125" customWidth="1"/>
+    <col min="6" max="6" width="26.83984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.15625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.47265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -18191,7 +19782,7 @@
       </c>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -18275,7 +19866,7 @@
       </c>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -18359,7 +19950,7 @@
       </c>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -18443,7 +20034,7 @@
       </c>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -18533,7 +20124,7 @@
         <v>246131711</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -18623,7 +20214,7 @@
         <v>85.425531914893625</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -18713,7 +20304,7 @@
         <v>25.627659574468087</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -18803,7 +20394,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -18893,7 +20484,7 @@
         <v>189629589.85106385</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -18977,7 +20568,7 @@
       </c>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -19067,7 +20658,7 @@
         <v>283361842</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -19157,7 +20748,7 @@
         <v>275300531</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -19241,7 +20832,7 @@
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -19325,7 +20916,7 @@
       </c>
       <c r="AA14" s="4"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -19415,7 +21006,7 @@
         <v>246131710.99999991</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -19499,7 +21090,7 @@
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -19589,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -19673,7 +21264,7 @@
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -19757,7 +21348,7 @@
       </c>
       <c r="AA19" s="4"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -19841,7 +21432,7 @@
       </c>
       <c r="AA20" s="4"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -19925,7 +21516,7 @@
       </c>
       <c r="AA21" s="4"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -20009,7 +21600,7 @@
       </c>
       <c r="AA22" s="4"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -20093,7 +21684,7 @@
       </c>
       <c r="AA23" s="4"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -20177,7 +21768,7 @@
       </c>
       <c r="AA24" s="4"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -20261,7 +21852,7 @@
       </c>
       <c r="AA25" s="4"/>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -20345,7 +21936,7 @@
       </c>
       <c r="AA26" s="4"/>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -20429,7 +22020,7 @@
       </c>
       <c r="AA27" s="4"/>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -20513,7 +22104,7 @@
       </c>
       <c r="AA28" s="4"/>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -20597,7 +22188,7 @@
       </c>
       <c r="AA29" s="4"/>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -20680,7 +22271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -20763,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -20846,7 +22437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -20929,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -21012,7 +22603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -21095,7 +22686,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -21178,7 +22769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -21261,7 +22852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -21344,7 +22935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -21427,7 +23018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -21510,7 +23101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -21593,7 +23184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -21676,7 +23267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -21759,7 +23350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -21842,7 +23433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -21925,7 +23516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -22008,7 +23599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -22091,7 +23682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -22174,7 +23765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -22257,7 +23848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -22340,7 +23931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -22423,7 +24014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>132</v>
       </c>
@@ -22506,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>133</v>
       </c>
@@ -22589,7 +24180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>134</v>
       </c>
@@ -22672,7 +24263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>135</v>
       </c>
@@ -22755,7 +24346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -22838,7 +24429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -22921,7 +24512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>138</v>
       </c>
@@ -23004,7 +24595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -23087,7 +24678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -23170,7 +24761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -23253,7 +24844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -23336,7 +24927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -23419,7 +25010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -23502,7 +25093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>145</v>
       </c>
@@ -23585,7 +25176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -23668,7 +25259,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -23751,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -23834,7 +25425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -23917,7 +25508,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>150</v>
       </c>
@@ -24000,7 +25591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -24083,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -24166,7 +25757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>153</v>
       </c>
@@ -24249,7 +25840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -24332,7 +25923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -24415,7 +26006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>156</v>
       </c>
@@ -24498,7 +26089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>157</v>
       </c>
@@ -24581,7 +26172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>158</v>
       </c>
@@ -24664,7 +26255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -24747,7 +26338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -24830,7 +26421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -24913,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>162</v>
       </c>
@@ -24996,7 +26587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>163</v>
       </c>
@@ -25079,7 +26670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -25162,7 +26753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -25245,7 +26836,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>166</v>
       </c>
@@ -25328,7 +26919,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -25411,7 +27002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>168</v>
       </c>
@@ -25494,7 +27085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>169</v>
       </c>
@@ -25577,7 +27168,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -25660,7 +27251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -25743,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>172</v>
       </c>
@@ -25826,7 +27417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>173</v>
       </c>
@@ -25909,7 +27500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -25992,7 +27583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -26075,7 +27666,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -26158,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>177</v>
       </c>
@@ -26241,7 +27832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -26324,7 +27915,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>179</v>
       </c>
@@ -26407,7 +27998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>180</v>
       </c>
@@ -26490,7 +28081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>181</v>
       </c>
@@ -26573,7 +28164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -26656,7 +28247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -26739,7 +28330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -26822,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -26905,7 +28496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>186</v>
       </c>
@@ -26988,7 +28579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>187</v>
       </c>
@@ -27071,7 +28662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>188</v>
       </c>
@@ -27154,7 +28745,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>189</v>
       </c>
@@ -27237,7 +28828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>190</v>
       </c>
@@ -27320,7 +28911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>191</v>
       </c>
@@ -27403,7 +28994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -27486,7 +29077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>193</v>
       </c>
@@ -27569,7 +29160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -27652,7 +29243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>195</v>
       </c>
@@ -27735,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>196</v>
       </c>
@@ -27818,7 +29409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>197</v>
       </c>
@@ -27901,7 +29492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>198</v>
       </c>
@@ -27984,7 +29575,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>199</v>
       </c>
@@ -28067,7 +29658,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>200</v>
       </c>
@@ -28150,7 +29741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>201</v>
       </c>
@@ -28233,7 +29824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>202</v>
       </c>
@@ -28316,7 +29907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -28399,7 +29990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>204</v>
       </c>
@@ -28482,7 +30073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>205</v>
       </c>
@@ -28565,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -28648,7 +30239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>207</v>
       </c>
@@ -28731,7 +30322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>208</v>
       </c>
@@ -28814,7 +30405,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -28897,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -28980,7 +30571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>211</v>
       </c>
@@ -29063,7 +30654,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -29146,7 +30737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -29229,7 +30820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>214</v>
       </c>
@@ -29312,7 +30903,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -29395,7 +30986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -29478,7 +31069,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -29561,7 +31152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -29675,35 +31266,35 @@
       <selection activeCell="G1" activeCellId="1" sqref="B1:D1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.47265625" customWidth="1"/>
+    <col min="3" max="3" width="29.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.15625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.1640625" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.15625" customWidth="1"/>
+    <col min="17" max="17" width="18.15625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.68359375" customWidth="1"/>
     <col min="19" max="19" width="19" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="15.83203125" customWidth="1"/>
-    <col min="22" max="22" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.6640625" customWidth="1"/>
-    <col min="24" max="24" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.83984375" customWidth="1"/>
+    <col min="22" max="22" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.68359375" customWidth="1"/>
+    <col min="24" max="24" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -29772,7 +31363,7 @@
       </c>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -29853,7 +31444,7 @@
       </c>
       <c r="Y2" s="4"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>387</v>
       </c>
@@ -29934,7 +31525,7 @@
       </c>
       <c r="Y3" s="4"/>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>388</v>
       </c>
@@ -30015,7 +31606,7 @@
       </c>
       <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>390</v>
       </c>
@@ -30102,7 +31693,7 @@
         <v>153152834</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>391</v>
       </c>
@@ -30189,7 +31780,7 @@
         <v>84.866666666666674</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>392</v>
       </c>
@@ -30276,7 +31867,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>393</v>
       </c>
@@ -30363,7 +31954,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>394</v>
       </c>
@@ -30450,7 +32041,7 @@
         <v>132110500.44</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>395</v>
       </c>
@@ -30531,7 +32122,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>396</v>
       </c>
@@ -30618,7 +32209,7 @@
         <v>347472289</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>397</v>
       </c>
@@ -30705,7 +32296,7 @@
         <v>347472289</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>398</v>
       </c>
@@ -30786,7 +32377,7 @@
       </c>
       <c r="Y13" s="4"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>399</v>
       </c>
@@ -30867,7 +32458,7 @@
       </c>
       <c r="Y14" s="4"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>400</v>
       </c>
@@ -30954,7 +32545,7 @@
         <v>153152833.99999994</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>401</v>
       </c>
@@ -31035,7 +32626,7 @@
       </c>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>402</v>
       </c>
@@ -31122,7 +32713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>403</v>
       </c>
@@ -31203,7 +32794,7 @@
       </c>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>404</v>
       </c>
@@ -31290,7 +32881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>405</v>
       </c>
@@ -31376,7 +32967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -31457,7 +33048,7 @@
       </c>
       <c r="Y21" s="4"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>407</v>
       </c>
@@ -31544,7 +33135,7 @@
         <v>-76.7</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>408</v>
       </c>
@@ -31631,7 +33222,7 @@
         <v>82.26</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>409</v>
       </c>
@@ -31712,7 +33303,7 @@
       </c>
       <c r="Y24" s="4"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>410</v>
       </c>
@@ -31793,7 +33384,7 @@
       </c>
       <c r="Y25" s="4"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>411</v>
       </c>
@@ -31874,7 +33465,7 @@
       </c>
       <c r="Y26" s="4"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>412</v>
       </c>
@@ -31955,7 +33546,7 @@
       </c>
       <c r="Y27" s="4"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>413</v>
       </c>
@@ -32035,7 +33626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>414</v>
       </c>
@@ -32115,7 +33706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>415</v>
       </c>
@@ -32195,7 +33786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>416</v>
       </c>
@@ -32275,7 +33866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>417</v>
       </c>
@@ -32355,7 +33946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -32435,7 +34026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>419</v>
       </c>
@@ -32515,7 +34106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>420</v>
       </c>
@@ -32595,7 +34186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>421</v>
       </c>
@@ -32675,7 +34266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>422</v>
       </c>
@@ -32755,7 +34346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>423</v>
       </c>
@@ -32835,7 +34426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>424</v>
       </c>
@@ -32915,7 +34506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>425</v>
       </c>
@@ -32995,7 +34586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>426</v>
       </c>
@@ -33075,7 +34666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>427</v>
       </c>
@@ -33155,7 +34746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>428</v>
       </c>
@@ -33235,7 +34826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>429</v>
       </c>
@@ -33315,7 +34906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>430</v>
       </c>
@@ -33395,7 +34986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>431</v>
       </c>
@@ -33475,7 +35066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>432</v>
       </c>
@@ -33555,7 +35146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>433</v>
       </c>
@@ -33635,7 +35226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>434</v>
       </c>
@@ -33715,7 +35306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>435</v>
       </c>
@@ -33795,7 +35386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>436</v>
       </c>
@@ -33875,7 +35466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>437</v>
       </c>
@@ -33955,7 +35546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>438</v>
       </c>
@@ -34035,7 +35626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>439</v>
       </c>
@@ -34115,7 +35706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>440</v>
       </c>
@@ -34195,7 +35786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>441</v>
       </c>
@@ -34275,7 +35866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>442</v>
       </c>
@@ -34355,7 +35946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>443</v>
       </c>
@@ -34435,7 +36026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>444</v>
       </c>
@@ -34515,7 +36106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>445</v>
       </c>
@@ -34595,7 +36186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>446</v>
       </c>
@@ -34675,7 +36266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>447</v>
       </c>
@@ -34755,7 +36346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>448</v>
       </c>
@@ -34835,7 +36426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>449</v>
       </c>
@@ -34915,7 +36506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>450</v>
       </c>
@@ -34995,7 +36586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>451</v>
       </c>
@@ -35075,7 +36666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>452</v>
       </c>
@@ -35155,7 +36746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>453</v>
       </c>
@@ -35235,7 +36826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>454</v>
       </c>
@@ -35315,10 +36906,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="K72" s="4"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4"/>
     </row>
   </sheetData>
@@ -35386,39 +36977,39 @@
       <selection pane="topRight" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.83984375" customWidth="1"/>
+    <col min="2" max="2" width="15.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.68359375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.68359375" style="4" customWidth="1"/>
     <col min="9" max="9" width="30" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="4" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.15625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.47265625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="17.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.47265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.83984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.68359375" style="4" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="4" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.83984375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="19.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.3125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.47265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -35493,7 +37084,7 @@
       </c>
       <c r="AA1" s="4"/>
     </row>
-    <row r="2" spans="1:31" s="9" customFormat="1">
+    <row r="2" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
         <v>358</v>
       </c>
@@ -35582,7 +37173,7 @@
       <c r="Y2"/>
       <c r="AA2" s="10"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>359</v>
       </c>
@@ -35670,7 +37261,7 @@
       </c>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>360</v>
       </c>
@@ -35758,7 +37349,7 @@
       </c>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>361</v>
       </c>
@@ -35852,7 +37443,7 @@
         <v>21339375</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="9" customFormat="1">
+    <row r="6" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>362</v>
       </c>
@@ -35947,7 +37538,7 @@
         <v>86.76666666666668</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="9" customFormat="1">
+    <row r="7" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="9" t="s">
         <v>363</v>
       </c>
@@ -36041,7 +37632,7 @@
         <v>26.03</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="9" customFormat="1">
+    <row r="8" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
         <v>364</v>
       </c>
@@ -36136,7 +37727,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="7" customFormat="1">
+    <row r="9" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>365</v>
       </c>
@@ -36238,7 +37829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" s="7" customFormat="1">
+    <row r="10" spans="1:31" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>366</v>
       </c>
@@ -36329,7 +37920,7 @@
       <c r="Y10"/>
       <c r="AA10" s="13"/>
     </row>
-    <row r="11" spans="1:31" s="9" customFormat="1">
+    <row r="11" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>367</v>
       </c>
@@ -36431,7 +38022,7 @@
         <v>163056713</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>368</v>
       </c>
@@ -36525,7 +38116,7 @@
         <v>56884072</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>369</v>
       </c>
@@ -36613,7 +38204,7 @@
       </c>
       <c r="AA13" s="4"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>370</v>
       </c>
@@ -36707,7 +38298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>371</v>
       </c>
@@ -36801,7 +38392,7 @@
         <v>21518422.476</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>372</v>
       </c>
@@ -36889,7 +38480,7 @@
       </c>
       <c r="AA16" s="4"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>373</v>
       </c>
@@ -36983,7 +38574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>374</v>
       </c>
@@ -37071,13 +38662,13 @@
       </c>
       <c r="AA18" s="4"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.55000000000000004">
       <c r="AA23" s="5"/>
     </row>
   </sheetData>
